--- a/examples/sample_input.xlsx
+++ b/examples/sample_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koalex/Documents/learning_planet/急彎偵測程式/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{652B42C4-5CA1-8042-A877-9FCDB16A2888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590F1DE0-5267-C841-BC94-82CB510BA877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{367ECD7A-A8BA-394A-AF1B-E3420694B926}"/>
   </bookViews>
@@ -50,7 +50,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0&quot;K+&quot;000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,6 +76,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF474747"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -94,10 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +425,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,114 +441,114 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3">
+        <v>255999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2709999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>256000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2710000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>256001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2710001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>1003</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>256002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2710002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>1004</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>256003</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2710003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>1005</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>256004</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2710004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>1006</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>256005</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2710005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>1007</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>256006</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2710006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>1008</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>256007</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2710007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>1009</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2045</v>
+      <c r="B11" s="3">
+        <v>256008</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2710008</v>
       </c>
     </row>
   </sheetData>
